--- a/数据库设计书.xlsx
+++ b/数据库设计书.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Git\v-plaza-admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB50C96-56D2-45DF-ACE2-0ACFDA18F94B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B86B58-3779-40B9-A63D-B73505C6F995}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1800" windowWidth="14625" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9180" yWindow="1680" windowWidth="14625" windowHeight="11505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概览" sheetId="1" r:id="rId1"/>
+    <sheet name="管理员权限母表" sheetId="2" r:id="rId2"/>
+    <sheet name="视频类型表" sheetId="3" r:id="rId3"/>
+    <sheet name="导航栏表" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +60,82 @@
   </si>
   <si>
     <t>视频信息存储表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类层级表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PERMISSION_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PERMISSION_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可否空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TinyInt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🔑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_ADMIN_PERMISSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_NAVIGATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_VIDEO_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:D9"/>
+  <dimension ref="C2:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -433,9 +513,298 @@
         <v>7</v>
       </c>
     </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429AC660-200B-4DCF-AB8D-4F00C5DE29C5}">
+  <dimension ref="A2:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16838C0A-41A4-4619-B5A7-5BA17B11F1C0}">
+  <dimension ref="A2:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122C1DFA-FEE8-44EC-8808-E80B02801E6B}">
+  <dimension ref="A2:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DEA4F4-E5A8-46A5-9C15-D9126D53B4F5}">
+  <dimension ref="A2:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/数据库设计书.xlsx
+++ b/数据库设计书.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Git\v-plaza-admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B86B58-3779-40B9-A63D-B73505C6F995}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F36B24-4265-4C3D-8C98-1E7A21462D9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9180" yWindow="1680" windowWidth="14625" windowHeight="11505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概览" sheetId="1" r:id="rId1"/>
     <sheet name="管理员权限母表" sheetId="2" r:id="rId2"/>
-    <sheet name="视频类型表" sheetId="3" r:id="rId3"/>
-    <sheet name="导航栏表" sheetId="4" r:id="rId4"/>
+    <sheet name="视频类型母表" sheetId="3" r:id="rId3"/>
+    <sheet name="分级导航栏表" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M_NAVIGATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TYPE_CODE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,7 +131,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T_VIDEO_TYPE</t>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PERMISSION_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PERMISSION_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_VIDEO_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可修改数据表记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可添加数据表记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可删除数据表记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可修改母表记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可删除母表记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频文件类型信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端左侧分级导航显示内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_NAVIGATION</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -179,8 +227,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -527,16 +576,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429AC660-200B-4DCF-AB8D-4F00C5DE29C5}">
-  <dimension ref="A2:F8"/>
+  <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F13" sqref="F13:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -559,7 +611,7 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
@@ -579,7 +631,7 @@
       <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -593,7 +645,7 @@
       <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -607,8 +659,85 @@
       <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" t="s">
-        <v>20</v>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +752,7 @@
   <dimension ref="A2:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -636,10 +765,16 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -678,17 +813,18 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -697,7 +833,7 @@
   <dimension ref="A2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -710,10 +846,16 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">

--- a/数据库设计书.xlsx
+++ b/数据库设计书.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B101480\OneDrive - NTTコミュニケーションズ株式会社\SecuredPC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Git\v-plaza-admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E398D0B-C28E-4D94-9641-C4D7BFBBA515}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FD9397-671C-4C27-9612-17BF7672EBB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="105" yWindow="210" windowWidth="14625" windowHeight="14775" tabRatio="700" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概览" sheetId="1" r:id="rId1"/>
@@ -22,28 +22,20 @@
     <sheet name="视频信息表" sheetId="11" r:id="rId7"/>
     <sheet name="管理员信息表" sheetId="5" r:id="rId8"/>
     <sheet name="用户登录信息表" sheetId="8" r:id="rId9"/>
-    <sheet name="用户账户信息表" sheetId="9" r:id="rId10"/>
-    <sheet name="用户行为记录表" sheetId="10" r:id="rId11"/>
+    <sheet name="用户行为记录表" sheetId="10" r:id="rId10"/>
+    <sheet name="用户账户信息表" sheetId="9" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="218">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,35 +93,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ICON_PATH</t>
-  </si>
-  <si>
-    <t>TYPE_EXT</t>
-  </si>
-  <si>
     <t>扩展名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CREATE_USER</t>
-  </si>
-  <si>
-    <t>MENU_NAME</t>
-  </si>
-  <si>
-    <t>MENU_CODE</t>
-  </si>
-  <si>
-    <t>MENU_LEVEL</t>
-  </si>
-  <si>
-    <t>IS_CHILD</t>
-  </si>
-  <si>
-    <t>HAS_CHILD</t>
-  </si>
-  <si>
-    <t>PARENT_CODE</t>
   </si>
   <si>
     <t>No</t>
@@ -251,616 +219,668 @@
     <t>ID</t>
   </si>
   <si>
+    <t>〇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型图标路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_MENU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从0开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个层级间差三位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_PERMISSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分级菜单表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_USER_PERMISSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_ADMIN_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_PASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADMIN_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADMIN_PASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后登录时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAST_LOGIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一标识</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UNIQUE_ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>内部标识</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>T_USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>国籍</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最后登录IP</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>旧密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后登录IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UNIQUE_ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>唯一标识</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UNIQUE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxxxxxx</t>
+  </si>
+  <si>
+    <t>xxxxxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAST_IPADDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLD_PASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAST_IPADDR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AGE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SEX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>COUNTRY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EMAIL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TEL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>视频名称</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>路径</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>播放权限</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>菜单代码</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>播放次数</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>时长</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>checksum</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>已删除</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>视频简介</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>封面缩略图路径</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>相关图片</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>待审核：0，审核中：1，已审核：2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>审核状态</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>关键字</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>番号</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>发行片商</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>主演</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>导演</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>国别</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VIDEO_NAME</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VIDEO_DESC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KEY_WORD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VIDEO_NO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>发行年份</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RELEASE_YEAR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PUBLISHER</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>STARRING</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DIRECTOR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PATH</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MENU_CODE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VIEWS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DURATION</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>THUMB_PATH</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RELATED_IMG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CHECK_SUM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IS_DELETED</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APPROVAL_STATUS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PLAY_PERMISSION</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>观看，点赞，搜索</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>对象</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BEHAVIOR_OBJ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>行为对象：商品ID，搜索关键字</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>充值，购买VIP</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>M_BEHAVIOR</t>
+  </si>
+  <si>
+    <t>M_BEHAVIOR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BEHAVIOR_NAME</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BEHAVIOR_CODE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>行为代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEHAVIOR_CODE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>行为代码</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>用户唯一标识</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>行为类型表</t>
+  </si>
+  <si>
+    <t>用户登录信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户账户信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户行为记录表</t>
+  </si>
+  <si>
+    <t>M_ADMIN_PERMISSION</t>
+  </si>
+  <si>
+    <t>M_USER_PERMISSION</t>
+  </si>
+  <si>
+    <t>M_VIDEO_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_MENU</t>
+  </si>
+  <si>
+    <t>T_VIDEO_INFO</t>
+  </si>
+  <si>
+    <t>T_ADMIN_INFO</t>
+  </si>
+  <si>
+    <t>T_USER</t>
+  </si>
+  <si>
+    <t>T_USER_FAVORITE</t>
+  </si>
+  <si>
+    <t>T_USER_ACCOUNT</t>
+  </si>
+  <si>
+    <t>SMALLINT（3）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TINYINT(2)</t>
+  </si>
+  <si>
+    <t>TINYINT(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>YEAR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TIME</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>TINYINT(3)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>行为对象：商品ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TINYINT(1)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR(1000)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TINYINT(2)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMALLINT(3)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SMALLINT(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(200)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SMALLINT(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TINYINT(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_VIDEO_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(500)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_USER_ACCOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_USER_FAVORITE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>TYPE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TYPE_CODE</t>
-  </si>
-  <si>
-    <t>〇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型图标路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_MENU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>层级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从0开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个层级间差三位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PERMISSION_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_PERMISSION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分级菜单表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M_USER_PERMISSION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_ADMIN_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_PASS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADMIN_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADMIN_PASS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后登录时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LAST_LOGIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一标识</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UNIQUE_ID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>内部标识</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>T_USER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>国籍</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>最后登录IP</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>旧密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后登录IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UNIQUE_ID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AMOUNT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>金额</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>唯一标识</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UNIQUE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxxxxxxx</t>
-  </si>
-  <si>
-    <t>xxxxxxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LAST_IPADDR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OLD_PASS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LAST_IPADDR</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AGE</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SEX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>COUNTRY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>EMAIL</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TEL</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>视频名称</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>路径</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>播放权限</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>菜单代码</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>播放次数</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>时长</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>checksum</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>已删除</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>视频简介</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>封面缩略图路径</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>相关图片</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>待审核：0，审核中：1，已审核：2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>审核状态</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>关键字</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>番号</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>发行片商</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>主演</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>导演</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>国别</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VIDEO_NAME</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VIDEO_DESC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>KEY_WORD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VIDEO_NO</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>发行年份</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>RELEASE_YEAR</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>PUBLISHER</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>STARRING</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DIRECTOR</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>COUNTRY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>PATH</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE_EXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICON_PATH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_USER</t>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+  </si>
+  <si>
+    <t>DATETIME(6)</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MENU_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MENU_CODE</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VIEWS</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DURATION</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>THUMB_PATH</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>RELATED_IMG</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CHECK_SUM</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>IS_DELETED</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APPROVAL_STATUS</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>PLAY_PERMISSION</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>观看，点赞，搜索</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>对象</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BEHAVIOR_OBJ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>行为对象：商品ID，搜索关键字</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>充值，购买VIP</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>M_BEHAVIOR</t>
-  </si>
-  <si>
-    <t>M_BEHAVIOR</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BEHAVIOR_NAME</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BEHAVIOR_CODE</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>行为代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行为名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BEHAVIOR_CODE</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>行为代码</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>用户唯一标识</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>行为类型表</t>
-  </si>
-  <si>
-    <t>用户登录信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户账户信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户行为记录表</t>
-  </si>
-  <si>
-    <t>M_ADMIN_PERMISSION</t>
-  </si>
-  <si>
-    <t>M_USER_PERMISSION</t>
-  </si>
-  <si>
-    <t>M_VIDEO_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_MENU</t>
-  </si>
-  <si>
-    <t>T_VIDEO_INFO</t>
-  </si>
-  <si>
-    <t>T_ADMIN_INFO</t>
-  </si>
-  <si>
-    <t>T_USER</t>
-  </si>
-  <si>
-    <t>T_USER_FAVORITE</t>
-  </si>
-  <si>
-    <t>T_USER_ACCOUNT</t>
-  </si>
-  <si>
-    <t>CREATE_DATE(8)</t>
-  </si>
-  <si>
-    <t>DATE(8)</t>
-  </si>
-  <si>
-    <t>UPDATE(8)_USER</t>
-  </si>
-  <si>
-    <t>UPDATE(8)_DATE(8)</t>
-  </si>
-  <si>
-    <t>SMALLINT（3）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TINYINT(2)</t>
-  </si>
-  <si>
-    <t>TINYINT(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>YEAR</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TIME</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-  </si>
-  <si>
-    <t>TINYINT(3)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VARCHAR(10)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>行为对象：商品ID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MENU_LEVEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_CHILD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAS_CHILD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARENT_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有码</t>
   </si>
   <si>
     <t>TINYINT(1)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VARCHAR(1000)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TINYINT(2)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMALLINT(3)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SMALLINT(3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(200)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SMALLINT(6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TINYINT(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_VIDEO_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(500)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_USER_ACCOUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_USER_FAVORITE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAS_MOSAIC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0:has, 1:not have</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -871,20 +891,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -893,7 +913,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1561,8 +1581,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1851,38 +1871,38 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="1"/>
+    <col min="2" max="2" width="3.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
       <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="15.6" thickBot="1"/>
-    <row r="4" spans="2:6" ht="15.6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="17.25" thickBot="1"/>
+    <row r="4" spans="2:6">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -1890,10 +1910,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="21"/>
@@ -1903,10 +1923,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="21"/>
@@ -1916,10 +1936,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E7" s="24"/>
       <c r="F7" s="21"/>
@@ -1929,10 +1949,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E8" s="24"/>
       <c r="F8" s="21"/>
@@ -1942,10 +1962,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="21"/>
@@ -1955,10 +1975,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="21"/>
@@ -1968,10 +1988,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="21"/>
@@ -1981,10 +2001,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="21"/>
@@ -1994,23 +2014,23 @@
         <v>9</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="21"/>
     </row>
-    <row r="14" spans="2:6" ht="15.6" thickBot="1">
+    <row r="14" spans="2:6" ht="17.25" thickBot="1">
       <c r="B14" s="14">
         <v>10</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="29"/>
@@ -2035,278 +2055,245 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4B2243-0BF1-4B5D-82F5-AE54729B43C2}">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E53FC34-91C8-4751-80A7-5E2FD160CC11}">
+  <dimension ref="B1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.09765625" style="66" customWidth="1"/>
-    <col min="2" max="2" width="4.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="1"/>
+    <col min="8" max="8" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" thickBot="1">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A2" s="1"/>
+    <row r="1" spans="2:9" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:9" ht="17.25" thickBot="1">
       <c r="B2" s="33" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:9" thickBot="1">
-      <c r="A3" s="1"/>
+    <row r="3" spans="2:9" ht="17.25" thickBot="1">
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1"/>
+    <row r="4" spans="2:9">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15">
-      <c r="A5" s="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15">
-      <c r="A6" s="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6" s="6">
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
-      <c r="A7" s="1"/>
+    <row r="7" spans="2:9">
       <c r="B7" s="6">
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15">
-      <c r="A8" s="1"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15">
-      <c r="A9" s="1"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
       <c r="B9" s="6">
-        <v>5</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>101</v>
+        <v>6</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>110</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A10" s="1"/>
+      <c r="G9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="49"/>
+      <c r="I9" s="50"/>
+    </row>
+    <row r="10" spans="2:9">
       <c r="B10" s="6">
-        <v>6</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>121</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C10" s="48"/>
       <c r="D10" s="7" t="s">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H10" s="49"/>
       <c r="I10" s="50"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
-      <c r="A11" s="1"/>
+    <row r="11" spans="2:9">
       <c r="B11" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="48"/>
       <c r="D11" s="7" t="s">
-        <v>17</v>
+        <v>205</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H11" s="49"/>
       <c r="I11" s="50"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="1"/>
+    <row r="12" spans="2:9">
       <c r="B12" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" s="48"/>
       <c r="D12" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H12" s="49"/>
       <c r="I12" s="50"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="6">
-        <v>9</v>
-      </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="50"/>
-    </row>
-    <row r="14" spans="1:9" ht="15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="62">
+    <row r="13" spans="2:9" ht="17.25" thickBot="1">
+      <c r="B13" s="51">
         <v>10</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63" t="s">
-        <v>183</v>
-      </c>
-      <c r="E14" s="63" t="s">
-        <v>181</v>
-      </c>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="64"/>
-      <c r="I14" s="65"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2316,245 +2303,278 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E53FC34-91C8-4751-80A7-5E2FD160CC11}">
-  <dimension ref="B1:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4B2243-0BF1-4B5D-82F5-AE54729B43C2}">
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="66" customWidth="1"/>
+    <col min="2" max="2" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="1"/>
+    <col min="8" max="8" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.6" thickBot="1"/>
-    <row r="2" spans="2:9" ht="16.2" thickBot="1">
+    <row r="1" spans="1:9" thickBot="1">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" thickBot="1">
+      <c r="A2" s="1"/>
       <c r="B2" s="33" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="2:9" ht="15.6" thickBot="1">
+    <row r="3" spans="1:9" thickBot="1">
+      <c r="A3" s="1"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="2:9" ht="15.6">
+    <row r="4" spans="1:9" ht="16.5">
+      <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5">
+      <c r="A5" s="1"/>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>54</v>
+        <v>207</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5">
+      <c r="A6" s="1"/>
       <c r="B6" s="6">
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="1:9" ht="16.5">
+      <c r="A7" s="1"/>
       <c r="B7" s="6">
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5">
+      <c r="A8" s="1"/>
       <c r="B8" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5">
+      <c r="A9" s="1"/>
       <c r="B9" s="6">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.6" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="6">
         <v>6</v>
       </c>
-      <c r="C9" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="49"/>
-      <c r="I9" s="50"/>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="6">
-        <v>7</v>
-      </c>
-      <c r="C10" s="48"/>
+      <c r="C10" s="48" t="s">
+        <v>110</v>
+      </c>
       <c r="D10" s="7" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H10" s="49"/>
       <c r="I10" s="50"/>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="1:9" ht="16.5">
+      <c r="A11" s="1"/>
       <c r="B11" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="48"/>
       <c r="D11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H11" s="49"/>
       <c r="I11" s="50"/>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="1:9" ht="16.5">
+      <c r="A12" s="1"/>
       <c r="B12" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="48"/>
       <c r="D12" s="7" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H12" s="49"/>
       <c r="I12" s="50"/>
     </row>
-    <row r="13" spans="2:9" ht="15.6" thickBot="1">
-      <c r="B13" s="51">
+    <row r="13" spans="1:9" ht="16.5">
+      <c r="A13" s="1"/>
+      <c r="B13" s="6">
+        <v>9</v>
+      </c>
+      <c r="C13" s="48"/>
+      <c r="D13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="49"/>
+      <c r="I13" s="50"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.5">
+      <c r="A14" s="1"/>
+      <c r="B14" s="62">
         <v>10</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="E13" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="53"/>
-      <c r="I13" s="54"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="64"/>
+      <c r="I14" s="65"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2567,57 +2587,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429AC660-200B-4DCF-AB8D-4F00C5DE29C5}">
   <dimension ref="B1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.8984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="4.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="1"/>
+    <col min="8" max="9" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.6" thickBot="1"/>
-    <row r="2" spans="2:9" ht="16.2" thickBot="1">
+    <row r="1" spans="2:9" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:9" ht="17.25" thickBot="1">
       <c r="B2" s="33" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="15.6" thickBot="1"/>
-    <row r="4" spans="2:9" ht="15.6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="17.25" thickBot="1"/>
+    <row r="4" spans="2:9">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -2625,25 +2645,25 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="F5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="I5" s="9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -2651,48 +2671,48 @@
         <v>2</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="2:9" ht="15.6" thickBot="1">
+    <row r="7" spans="2:9" ht="17.25" thickBot="1">
       <c r="B7" s="14">
         <v>3</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="9" spans="2:9" ht="15.6" thickBot="1">
+    <row r="9" spans="2:9" ht="17.25" thickBot="1">
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -2761,7 +2781,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="15.6" thickBot="1">
+    <row r="16" spans="2:9" ht="17.25" thickBot="1">
       <c r="B16" s="44">
         <v>6</v>
       </c>
@@ -2784,56 +2804,56 @@
   <dimension ref="B1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.8984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="4.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="1"/>
+    <col min="8" max="9" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.6" thickBot="1"/>
-    <row r="2" spans="2:9" ht="16.2" thickBot="1">
+    <row r="1" spans="2:9" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:9" ht="17.25" thickBot="1">
       <c r="B2" s="33" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="15.6" thickBot="1"/>
-    <row r="4" spans="2:9" ht="15.6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="17.25" thickBot="1"/>
+    <row r="4" spans="2:9">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -2841,25 +2861,25 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="F5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="I5" s="9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -2867,20 +2887,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="59" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H6" s="58" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I6" s="9"/>
     </row>
@@ -2889,48 +2909,48 @@
         <v>3</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D7" s="57" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="F7" s="58"/>
       <c r="G7" s="59" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H7" s="58" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I7" s="60"/>
     </row>
-    <row r="8" spans="2:9" ht="15.6" thickBot="1">
+    <row r="8" spans="2:9" ht="17.25" thickBot="1">
       <c r="B8" s="14">
         <v>4</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="10" spans="2:9" ht="15.6" thickBot="1">
+    <row r="10" spans="2:9" ht="17.25" thickBot="1">
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -2938,7 +2958,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>2</v>
@@ -2952,10 +2972,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E12" s="40">
         <v>1</v>
@@ -2966,10 +2986,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E13" s="43">
         <v>2</v>
@@ -2980,24 +3000,24 @@
         <v>3</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E14" s="43">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="15.6" thickBot="1">
+    <row r="15" spans="2:9" ht="17.25" thickBot="1">
       <c r="B15" s="44">
         <v>4</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E15" s="46">
         <v>8</v>
@@ -3015,29 +3035,29 @@
   <dimension ref="B1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.09765625" style="66" customWidth="1"/>
-    <col min="2" max="2" width="4.796875" style="66" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.19921875" style="66" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.3984375" style="66" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.09765625" style="66" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.796875" style="66" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="66" customWidth="1"/>
+    <col min="2" max="2" width="4.75" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="66" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="66" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="66" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.75" style="66" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.5" style="66" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="4.796875" style="66" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="66"/>
+    <col min="8" max="9" width="4.75" style="66" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="16.2" thickBot="1"/>
-    <row r="2" spans="2:9" ht="16.2" thickBot="1">
+    <row r="1" spans="2:9" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:9" ht="18" thickBot="1">
       <c r="B2" s="33" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
@@ -3046,7 +3066,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" ht="16.2" thickBot="1">
+    <row r="3" spans="2:9" ht="18" thickBot="1">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3058,28 +3078,28 @@
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -3087,25 +3107,25 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>54</v>
+        <v>197</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -3113,17 +3133,17 @@
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>55</v>
+        <v>198</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="9"/>
@@ -3133,17 +3153,17 @@
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>56</v>
+        <v>199</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="9"/>
@@ -3153,17 +3173,17 @@
         <v>4</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="9"/>
@@ -3173,17 +3193,17 @@
         <v>5</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="9"/>
@@ -3194,14 +3214,14 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
@@ -3212,14 +3232,14 @@
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="9"/>
@@ -3230,32 +3250,32 @@
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="2:9" ht="16.2" thickBot="1">
+    <row r="13" spans="2:9" ht="17.25" thickBot="1">
       <c r="B13" s="47">
         <v>9</v>
       </c>
       <c r="C13" s="48"/>
       <c r="D13" s="48" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="E13" s="48" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="F13" s="49"/>
       <c r="G13" s="49" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H13" s="49"/>
       <c r="I13" s="50"/>
@@ -3282,29 +3302,29 @@
   <dimension ref="B1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3" style="66" customWidth="1"/>
-    <col min="2" max="2" width="4.796875" style="66" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.796875" style="66" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.3984375" style="66" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.09765625" style="66" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.796875" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.75" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="66" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="66" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="66" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.75" style="66" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.5" style="66" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="4.796875" style="66" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="66"/>
+    <col min="8" max="9" width="4.75" style="66" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="16.2" thickBot="1"/>
-    <row r="2" spans="2:9" ht="16.2" thickBot="1">
+    <row r="1" spans="2:9" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:9" ht="18" thickBot="1">
       <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
@@ -3313,7 +3333,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" ht="16.2" thickBot="1">
+    <row r="3" spans="2:9" ht="18" thickBot="1">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3325,28 +3345,28 @@
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -3354,25 +3374,25 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>54</v>
+        <v>207</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -3380,17 +3400,17 @@
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="9"/>
@@ -3400,17 +3420,17 @@
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="9"/>
@@ -3421,14 +3441,14 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="9"/>
@@ -3439,14 +3459,14 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="9"/>
@@ -3457,32 +3477,32 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" ht="16.2" thickBot="1">
+    <row r="11" spans="2:9" ht="17.25" thickBot="1">
       <c r="B11" s="47">
         <v>7</v>
       </c>
       <c r="C11" s="48"/>
       <c r="D11" s="48" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="E11" s="48" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="F11" s="49"/>
       <c r="G11" s="49" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H11" s="49"/>
       <c r="I11" s="50"/>
@@ -3509,33 +3529,33 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" style="66" customWidth="1"/>
-    <col min="2" max="2" width="4.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.625" style="66" customWidth="1"/>
+    <col min="2" max="2" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="1"/>
+    <col min="8" max="8" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" thickBot="1">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="16.2" thickBot="1">
+    <row r="2" spans="1:9" thickBot="1">
       <c r="A2" s="1"/>
       <c r="B2" s="33" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -3543,271 +3563,273 @@
       <c r="A3" s="1"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="1"/>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>54</v>
+        <v>197</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="1"/>
       <c r="B6" s="6">
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="1"/>
       <c r="B7" s="6">
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="1"/>
       <c r="B8" s="6">
         <v>4</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="1"/>
       <c r="B9" s="6">
         <v>5</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>21</v>
+        <v>211</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="1"/>
       <c r="B10" s="6">
         <v>6</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>22</v>
+        <v>212</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="1"/>
       <c r="B11" s="6">
         <v>7</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>23</v>
+        <v>213</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="1"/>
       <c r="B12" s="6">
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="1"/>
-      <c r="B13" s="47"/>
+      <c r="B13" s="6">
+        <v>9</v>
+      </c>
       <c r="C13" s="48" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H13" s="49"/>
       <c r="I13" s="50"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="1"/>
-      <c r="B14" s="47">
-        <v>9</v>
+      <c r="B14" s="6">
+        <v>10</v>
       </c>
       <c r="C14" s="48"/>
       <c r="D14" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H14" s="49"/>
       <c r="I14" s="50"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="1"/>
-      <c r="B15" s="47">
-        <v>10</v>
+      <c r="B15" s="6">
+        <v>11</v>
       </c>
       <c r="C15" s="48"/>
       <c r="D15" s="7" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H15" s="49"/>
       <c r="I15" s="50"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="1"/>
-      <c r="B16" s="47">
-        <v>11</v>
+      <c r="B16" s="6">
+        <v>12</v>
       </c>
       <c r="C16" s="48"/>
       <c r="D16" s="7" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H16" s="49"/>
       <c r="I16" s="50"/>
@@ -3815,18 +3837,18 @@
     <row r="17" spans="1:9" thickBot="1">
       <c r="A17" s="1"/>
       <c r="B17" s="51">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" s="52"/>
       <c r="D17" s="52" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="E17" s="52" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="F17" s="53"/>
       <c r="G17" s="53" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H17" s="53"/>
       <c r="I17" s="54"/>
@@ -3840,36 +3862,36 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5005A0DB-2222-496A-893B-388AC658682E}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="2.5" style="66" customWidth="1"/>
-    <col min="2" max="2" width="4.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="1"/>
+    <col min="8" max="8" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" thickBot="1">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="16.2" thickBot="1">
+    <row r="2" spans="1:9" thickBot="1">
       <c r="A2" s="1"/>
       <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -3877,535 +3899,556 @@
       <c r="A3" s="1"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="1"/>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="1"/>
       <c r="B6" s="6">
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="1"/>
       <c r="B7" s="6">
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="1"/>
       <c r="B8" s="6">
         <v>4</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="1"/>
       <c r="B9" s="6">
         <v>5</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="1"/>
       <c r="B10" s="6">
         <v>6</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="1"/>
       <c r="B11" s="6">
         <v>7</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="1"/>
       <c r="B12" s="6">
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="1"/>
       <c r="B13" s="6">
         <v>9</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="1"/>
       <c r="B14" s="6">
         <v>10</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="1"/>
       <c r="B15" s="6">
         <v>11</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="1"/>
       <c r="B16" s="6">
         <v>12</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>115</v>
+        <v>214</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>143</v>
+        <v>216</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="8" t="s">
-        <v>46</v>
-      </c>
+      <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="1:9" ht="15">
+      <c r="I16" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16.5">
       <c r="A17" s="1"/>
       <c r="B17" s="6">
         <v>13</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="16.5">
       <c r="A18" s="1"/>
       <c r="B18" s="6">
         <v>14</v>
       </c>
-      <c r="C18" s="48" t="s">
-        <v>116</v>
+      <c r="C18" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="49"/>
-      <c r="I18" s="50"/>
-    </row>
-    <row r="19" spans="1:9" ht="15">
+        <v>38</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.5">
       <c r="A19" s="1"/>
       <c r="B19" s="6">
         <v>15</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="G19" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="H19" s="49"/>
       <c r="I19" s="50"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="16.5">
       <c r="A20" s="1"/>
       <c r="B20" s="6">
         <v>16</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="F20" s="8"/>
-      <c r="G20" s="8" t="s">
-        <v>46</v>
-      </c>
+      <c r="G20" s="8"/>
       <c r="H20" s="49"/>
       <c r="I20" s="50"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="16.5">
       <c r="A21" s="1"/>
       <c r="B21" s="6">
         <v>17</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="G21" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="H21" s="49"/>
       <c r="I21" s="50"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="16.5">
       <c r="A22" s="1"/>
       <c r="B22" s="6">
         <v>18</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="49"/>
       <c r="I22" s="50"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="16.5">
       <c r="A23" s="1"/>
       <c r="B23" s="6">
         <v>19</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F23" s="8"/>
-      <c r="G23" s="8" t="s">
-        <v>46</v>
-      </c>
+      <c r="G23" s="8"/>
       <c r="H23" s="49"/>
       <c r="I23" s="50"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="16.5">
       <c r="A24" s="1"/>
       <c r="B24" s="6">
         <v>20</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H24" s="49"/>
       <c r="I24" s="50"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="16.5">
       <c r="A25" s="1"/>
       <c r="B25" s="6">
         <v>21</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H25" s="49"/>
-      <c r="I25" s="50" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15">
+      <c r="I25" s="50"/>
+    </row>
+    <row r="26" spans="1:9" ht="16.5">
       <c r="A26" s="1"/>
       <c r="B26" s="6">
         <v>22</v>
       </c>
-      <c r="C26" s="48"/>
+      <c r="C26" s="48" t="s">
+        <v>115</v>
+      </c>
       <c r="D26" s="7" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H26" s="49"/>
-      <c r="I26" s="50"/>
-    </row>
-    <row r="27" spans="1:9" ht="15">
+      <c r="I26" s="50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16.5">
       <c r="A27" s="1"/>
       <c r="B27" s="6">
         <v>23</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="7" t="s">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H27" s="49"/>
       <c r="I27" s="50"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="16.5">
       <c r="A28" s="1"/>
       <c r="B28" s="6">
         <v>24</v>
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="7" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H28" s="49"/>
       <c r="I28" s="50"/>
     </row>
-    <row r="29" spans="1:9" thickBot="1">
+    <row r="29" spans="1:9" ht="16.5">
       <c r="A29" s="1"/>
-      <c r="B29" s="51">
+      <c r="B29" s="6">
         <v>25</v>
       </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="E29" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" s="53"/>
-      <c r="I29" s="54"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="49"/>
+      <c r="I29" s="50"/>
+    </row>
+    <row r="30" spans="1:9" thickBot="1">
+      <c r="A30" s="1"/>
+      <c r="B30" s="51">
+        <v>26</v>
+      </c>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="E30" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="53"/>
+      <c r="I30" s="54"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -4419,32 +4462,32 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="3" style="66" customWidth="1"/>
-    <col min="2" max="2" width="4.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="4.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="1"/>
+    <col min="8" max="9" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" thickBot="1">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="16.2" thickBot="1">
+    <row r="2" spans="1:9" thickBot="1">
       <c r="A2" s="1"/>
       <c r="B2" s="33" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -4452,252 +4495,252 @@
       <c r="A3" s="1"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="1"/>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>54</v>
+        <v>197</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="1"/>
       <c r="B6" s="6">
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="1"/>
       <c r="B7" s="6">
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="1"/>
       <c r="B8" s="6">
         <v>4</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="1"/>
       <c r="B9" s="6">
         <v>5</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="49"/>
       <c r="I9" s="50"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="1"/>
       <c r="B10" s="6">
         <v>6</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="49"/>
       <c r="I10" s="50"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="1"/>
       <c r="B11" s="6">
         <v>7</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="49"/>
       <c r="I11" s="50"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="1"/>
       <c r="B12" s="6"/>
       <c r="C12" s="48" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H12" s="49"/>
       <c r="I12" s="50"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="1"/>
       <c r="B13" s="6">
         <v>8</v>
       </c>
       <c r="C13" s="48"/>
       <c r="D13" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H13" s="49"/>
       <c r="I13" s="50"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="1"/>
       <c r="B14" s="6">
         <v>9</v>
       </c>
       <c r="C14" s="48"/>
       <c r="D14" s="7" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H14" s="49"/>
       <c r="I14" s="50"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="1"/>
       <c r="B15" s="6">
         <v>10</v>
       </c>
       <c r="C15" s="48"/>
       <c r="D15" s="7" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H15" s="49"/>
       <c r="I15" s="50"/>
@@ -4709,14 +4752,14 @@
       </c>
       <c r="C16" s="52"/>
       <c r="D16" s="52" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="F16" s="53"/>
       <c r="G16" s="53" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H16" s="53"/>
       <c r="I16" s="54"/>
@@ -4732,34 +4775,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9F5CF2-072F-4A5B-BA8B-44A91CDB91C7}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="2.796875" style="66" customWidth="1"/>
-    <col min="2" max="2" width="4.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.75" style="66" customWidth="1"/>
+    <col min="2" max="2" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="1"/>
+    <col min="8" max="8" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" thickBot="1">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="16.2" thickBot="1">
+    <row r="2" spans="1:9" thickBot="1">
       <c r="A2" s="1"/>
       <c r="B2" s="33" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -4767,370 +4810,372 @@
       <c r="A3" s="1"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="1"/>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>54</v>
+        <v>207</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="1"/>
       <c r="B6" s="6">
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="1"/>
       <c r="B7" s="6">
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="1"/>
       <c r="B8" s="6">
         <v>4</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="1"/>
       <c r="B9" s="6">
         <v>5</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="1"/>
       <c r="B10" s="6">
         <v>6</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="49"/>
       <c r="I10" s="50"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="1"/>
       <c r="B11" s="6">
         <v>7</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="49"/>
       <c r="I11" s="50"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="1"/>
       <c r="B12" s="6">
         <v>8</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="49"/>
       <c r="I12" s="50"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="1"/>
       <c r="B13" s="6">
         <v>9</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="49"/>
       <c r="I13" s="50"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="1"/>
       <c r="B14" s="6">
         <v>10</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="49"/>
       <c r="I14" s="50"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="1"/>
       <c r="B15" s="6">
         <v>11</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="49"/>
       <c r="I15" s="50"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="1"/>
       <c r="B16" s="6">
         <v>12</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="49"/>
       <c r="I16" s="50"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="16.5">
       <c r="A17" s="1"/>
       <c r="B17" s="6">
         <v>13</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="49"/>
       <c r="I17" s="50"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="16.5">
       <c r="A18" s="1"/>
-      <c r="B18" s="6"/>
+      <c r="B18" s="6">
+        <v>14</v>
+      </c>
       <c r="C18" s="48" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H18" s="49"/>
       <c r="I18" s="50"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="16.5">
       <c r="A19" s="1"/>
       <c r="B19" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19" s="48"/>
       <c r="D19" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H19" s="49"/>
       <c r="I19" s="50"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="16.5">
       <c r="A20" s="1"/>
       <c r="B20" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" s="48"/>
       <c r="D20" s="7" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H20" s="49"/>
       <c r="I20" s="50"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="16.5">
       <c r="A21" s="1"/>
       <c r="B21" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" s="48"/>
       <c r="D21" s="7" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H21" s="49"/>
       <c r="I21" s="50"/>
@@ -5138,18 +5183,18 @@
     <row r="22" spans="1:9" thickBot="1">
       <c r="A22" s="1"/>
       <c r="B22" s="51">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="52"/>
       <c r="D22" s="52" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="E22" s="52" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="F22" s="53"/>
       <c r="G22" s="53" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H22" s="53"/>
       <c r="I22" s="54"/>
